--- a/Financials/Yearly/HUSKF_YR_FIN.xlsx
+++ b/Financials/Yearly/HUSKF_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C50BAB-793D-44FD-90D6-69ADB9EA5EAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HUSKF" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>HUSKF</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,140 +689,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14276000</v>
+        <v>16560200</v>
       </c>
       <c r="E8" s="3">
-        <v>9924800</v>
+        <v>13829700</v>
       </c>
       <c r="F8" s="3">
-        <v>12575200</v>
+        <v>9614400</v>
       </c>
       <c r="G8" s="3">
-        <v>18508200</v>
+        <v>12182000</v>
       </c>
       <c r="H8" s="3">
-        <v>17912800</v>
+        <v>17929500</v>
       </c>
       <c r="I8" s="3">
-        <v>17097000</v>
+        <v>17352700</v>
       </c>
       <c r="J8" s="3">
+        <v>16562400</v>
+      </c>
+      <c r="K8" s="3">
         <v>16868000</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10943400</v>
+        <v>12918000</v>
       </c>
       <c r="E9" s="3">
-        <v>7743800</v>
+        <v>10601300</v>
       </c>
       <c r="F9" s="3">
-        <v>9519100</v>
+        <v>7501600</v>
       </c>
       <c r="G9" s="3">
-        <v>13465500</v>
+        <v>9221500</v>
       </c>
       <c r="H9" s="3">
-        <v>12952400</v>
+        <v>13044500</v>
       </c>
       <c r="I9" s="3">
-        <v>12311700</v>
+        <v>12547400</v>
       </c>
       <c r="J9" s="3">
+        <v>11926700</v>
+      </c>
+      <c r="K9" s="3">
         <v>24707000</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3332600</v>
+        <v>3642200</v>
       </c>
       <c r="E10" s="3">
-        <v>2181000</v>
+        <v>3228400</v>
       </c>
       <c r="F10" s="3">
-        <v>3056000</v>
+        <v>2112800</v>
       </c>
       <c r="G10" s="3">
-        <v>5042700</v>
+        <v>2960500</v>
       </c>
       <c r="H10" s="3">
-        <v>4960500</v>
+        <v>4885000</v>
       </c>
       <c r="I10" s="3">
-        <v>4785300</v>
+        <v>4805400</v>
       </c>
       <c r="J10" s="3">
+        <v>4635700</v>
+      </c>
+      <c r="K10" s="3">
         <v>-7839000</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,35 +846,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>112200</v>
+        <v>110900</v>
       </c>
       <c r="E12" s="3">
-        <v>144400</v>
+        <v>108700</v>
       </c>
       <c r="F12" s="3">
-        <v>343400</v>
+        <v>139900</v>
       </c>
       <c r="G12" s="3">
-        <v>164400</v>
+        <v>332700</v>
       </c>
       <c r="H12" s="3">
-        <v>189000</v>
+        <v>159300</v>
       </c>
       <c r="I12" s="3">
-        <v>264300</v>
+        <v>183100</v>
       </c>
       <c r="J12" s="3">
+        <v>256000</v>
+      </c>
+      <c r="K12" s="3">
         <v>361100</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,9 +903,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -879,36 +933,42 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>2214000</v>
+        <v>1928200</v>
       </c>
       <c r="E15" s="3">
-        <v>1891400</v>
+        <v>2144800</v>
       </c>
       <c r="F15" s="3">
-        <v>6640600</v>
+        <v>1832200</v>
       </c>
       <c r="G15" s="3">
-        <v>3080600</v>
+        <v>6433000</v>
       </c>
       <c r="H15" s="3">
-        <v>2308500</v>
+        <v>2984300</v>
       </c>
       <c r="I15" s="3">
-        <v>1982000</v>
+        <v>2236400</v>
       </c>
       <c r="J15" s="3">
+        <v>1920100</v>
+      </c>
+      <c r="K15" s="3">
         <v>1935200</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +977,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>13719800</v>
+        <v>15001000</v>
       </c>
       <c r="E17" s="3">
-        <v>8921500</v>
+        <v>13290800</v>
       </c>
       <c r="F17" s="3">
-        <v>16528500</v>
+        <v>8642500</v>
       </c>
       <c r="G17" s="3">
-        <v>17022400</v>
+        <v>16011700</v>
       </c>
       <c r="H17" s="3">
-        <v>15811700</v>
+        <v>16490200</v>
       </c>
       <c r="I17" s="3">
-        <v>14807600</v>
+        <v>15317300</v>
       </c>
       <c r="J17" s="3">
+        <v>14344600</v>
+      </c>
+      <c r="K17" s="3">
         <v>14291400</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>556200</v>
+        <v>1559100</v>
       </c>
       <c r="E18" s="3">
-        <v>1003300</v>
+        <v>538800</v>
       </c>
       <c r="F18" s="3">
-        <v>-3953300</v>
+        <v>971900</v>
       </c>
       <c r="G18" s="3">
-        <v>1485800</v>
+        <v>-3829700</v>
       </c>
       <c r="H18" s="3">
-        <v>2101100</v>
+        <v>1439300</v>
       </c>
       <c r="I18" s="3">
-        <v>2289300</v>
+        <v>2035400</v>
       </c>
       <c r="J18" s="3">
+        <v>2217700</v>
+      </c>
+      <c r="K18" s="3">
         <v>2576600</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -984,143 +1051,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-20000</v>
+        <v>33500</v>
       </c>
       <c r="E20" s="3">
-        <v>-79900</v>
+        <v>-17900</v>
       </c>
       <c r="F20" s="3">
-        <v>-63000</v>
+        <v>-72900</v>
       </c>
       <c r="G20" s="3">
-        <v>-108300</v>
+        <v>-49100</v>
       </c>
       <c r="H20" s="3">
-        <v>-56800</v>
+        <v>-41700</v>
       </c>
       <c r="I20" s="3">
-        <v>-63000</v>
+        <v>-44700</v>
       </c>
       <c r="J20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-49900</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2760800</v>
+        <v>3524900</v>
       </c>
       <c r="E21" s="3">
-        <v>2823800</v>
+        <v>2670300</v>
       </c>
       <c r="F21" s="3">
-        <v>2656000</v>
+        <v>2735100</v>
       </c>
       <c r="G21" s="3">
-        <v>4472800</v>
+        <v>2567600</v>
       </c>
       <c r="H21" s="3">
-        <v>4363800</v>
+        <v>4388200</v>
       </c>
       <c r="I21" s="3">
-        <v>4217800</v>
+        <v>4231800</v>
       </c>
       <c r="J21" s="3">
+        <v>4141100</v>
+      </c>
+      <c r="K21" s="3">
         <v>4471100</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>210500</v>
+        <v>157800</v>
       </c>
       <c r="E22" s="3">
-        <v>193600</v>
+        <v>205400</v>
       </c>
       <c r="F22" s="3">
-        <v>109900</v>
+        <v>192000</v>
       </c>
       <c r="G22" s="3">
-        <v>6900</v>
+        <v>118300</v>
       </c>
       <c r="H22" s="3">
-        <v>25400</v>
+        <v>70000</v>
       </c>
       <c r="I22" s="3">
-        <v>47600</v>
+        <v>35000</v>
       </c>
       <c r="J22" s="3">
+        <v>106400</v>
+      </c>
+      <c r="K22" s="3">
         <v>114500</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>325700</v>
+        <v>1434800</v>
       </c>
       <c r="E23" s="3">
-        <v>729800</v>
+        <v>315500</v>
       </c>
       <c r="F23" s="3">
-        <v>-4126200</v>
+        <v>707000</v>
       </c>
       <c r="G23" s="3">
-        <v>1370500</v>
+        <v>-3997200</v>
       </c>
       <c r="H23" s="3">
-        <v>2018900</v>
+        <v>1327700</v>
       </c>
       <c r="I23" s="3">
-        <v>2178700</v>
+        <v>1955800</v>
       </c>
       <c r="J23" s="3">
+        <v>2110600</v>
+      </c>
+      <c r="K23" s="3">
         <v>2412200</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>56800</v>
+        <v>350500</v>
       </c>
       <c r="E24" s="3">
-        <v>21500</v>
+        <v>55100</v>
       </c>
       <c r="F24" s="3">
-        <v>-1168500</v>
+        <v>20800</v>
       </c>
       <c r="G24" s="3">
-        <v>404100</v>
+        <v>-1131900</v>
       </c>
       <c r="H24" s="3">
-        <v>613800</v>
+        <v>391500</v>
       </c>
       <c r="I24" s="3">
-        <v>625300</v>
+        <v>594600</v>
       </c>
       <c r="J24" s="3">
+        <v>605800</v>
+      </c>
+      <c r="K24" s="3">
         <v>703700</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1145,63 +1228,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>268900</v>
+        <v>1084300</v>
       </c>
       <c r="E26" s="3">
-        <v>708300</v>
+        <v>260500</v>
       </c>
       <c r="F26" s="3">
-        <v>-2957700</v>
+        <v>686200</v>
       </c>
       <c r="G26" s="3">
-        <v>966400</v>
+        <v>-2865200</v>
       </c>
       <c r="H26" s="3">
-        <v>1405100</v>
+        <v>936200</v>
       </c>
       <c r="I26" s="3">
-        <v>1553400</v>
+        <v>1361200</v>
       </c>
       <c r="J26" s="3">
+        <v>1504800</v>
+      </c>
+      <c r="K26" s="3">
         <v>1708500</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>242800</v>
+        <v>1058300</v>
       </c>
       <c r="E27" s="3">
-        <v>680700</v>
+        <v>235200</v>
       </c>
       <c r="F27" s="3">
-        <v>-2985300</v>
+        <v>659400</v>
       </c>
       <c r="G27" s="3">
-        <v>956400</v>
+        <v>-2892000</v>
       </c>
       <c r="H27" s="3">
-        <v>1395100</v>
+        <v>926500</v>
       </c>
       <c r="I27" s="3">
-        <v>1543400</v>
+        <v>1351500</v>
       </c>
       <c r="J27" s="3">
+        <v>1495100</v>
+      </c>
+      <c r="K27" s="3">
         <v>1700900</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1226,17 +1318,20 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
-        <v>334900</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="E29" s="3">
+        <v>324500</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
@@ -1253,9 +1348,12 @@
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1378,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1408,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>20000</v>
+        <v>-33500</v>
       </c>
       <c r="E32" s="3">
-        <v>79900</v>
+        <v>17900</v>
       </c>
       <c r="F32" s="3">
-        <v>63000</v>
+        <v>72900</v>
       </c>
       <c r="G32" s="3">
-        <v>108300</v>
+        <v>49100</v>
       </c>
       <c r="H32" s="3">
-        <v>56800</v>
+        <v>41700</v>
       </c>
       <c r="I32" s="3">
-        <v>63000</v>
+        <v>44700</v>
       </c>
       <c r="J32" s="3">
+        <v>700</v>
+      </c>
+      <c r="K32" s="3">
         <v>49900</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>577700</v>
+        <v>1058300</v>
       </c>
       <c r="E33" s="3">
-        <v>680700</v>
+        <v>559600</v>
       </c>
       <c r="F33" s="3">
-        <v>-2985300</v>
+        <v>659400</v>
       </c>
       <c r="G33" s="3">
-        <v>956400</v>
+        <v>-2892000</v>
       </c>
       <c r="H33" s="3">
-        <v>1395100</v>
+        <v>926500</v>
       </c>
       <c r="I33" s="3">
-        <v>1543400</v>
+        <v>1351500</v>
       </c>
       <c r="J33" s="3">
+        <v>1495100</v>
+      </c>
+      <c r="K33" s="3">
         <v>1700900</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1498,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>577700</v>
+        <v>1058300</v>
       </c>
       <c r="E35" s="3">
-        <v>680700</v>
+        <v>559600</v>
       </c>
       <c r="F35" s="3">
-        <v>-2985300</v>
+        <v>659400</v>
       </c>
       <c r="G35" s="3">
-        <v>956400</v>
+        <v>-2892000</v>
       </c>
       <c r="H35" s="3">
-        <v>1395100</v>
+        <v>926500</v>
       </c>
       <c r="I35" s="3">
-        <v>1543400</v>
+        <v>1351500</v>
       </c>
       <c r="J35" s="3">
+        <v>1495100</v>
+      </c>
+      <c r="K35" s="3">
         <v>1700900</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1580,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,35 +1594,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1930600</v>
+        <v>2132900</v>
       </c>
       <c r="E41" s="3">
-        <v>1013300</v>
+        <v>1870200</v>
       </c>
       <c r="F41" s="3">
-        <v>53800</v>
+        <v>981600</v>
       </c>
       <c r="G41" s="3">
-        <v>973300</v>
+        <v>52100</v>
       </c>
       <c r="H41" s="3">
-        <v>234300</v>
+        <v>942900</v>
       </c>
       <c r="I41" s="3">
-        <v>1750800</v>
+        <v>227000</v>
       </c>
       <c r="J41" s="3">
+        <v>1696100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1500</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1518,207 +1642,231 @@
       <c r="G42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="3">
-        <v>608400</v>
+      <c r="H42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I42" s="3">
-        <v>1458100</v>
+        <v>589400</v>
       </c>
       <c r="J42" s="3">
+        <v>1412500</v>
+      </c>
+      <c r="K42" s="3">
         <v>1412800</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1024100</v>
+        <v>1059800</v>
       </c>
       <c r="E43" s="3">
-        <v>931900</v>
+        <v>992000</v>
       </c>
       <c r="F43" s="3">
-        <v>973300</v>
+        <v>902700</v>
       </c>
       <c r="G43" s="3">
-        <v>1247600</v>
+        <v>942900</v>
       </c>
       <c r="H43" s="3">
-        <v>1457300</v>
+        <v>1208600</v>
       </c>
       <c r="I43" s="3">
-        <v>3319500</v>
+        <v>1411800</v>
       </c>
       <c r="J43" s="3">
+        <v>3215700</v>
+      </c>
+      <c r="K43" s="3">
         <v>1107800</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1162300</v>
+        <v>916900</v>
       </c>
       <c r="E44" s="3">
-        <v>1196900</v>
+        <v>1126000</v>
       </c>
       <c r="F44" s="3">
-        <v>958000</v>
+        <v>1159500</v>
       </c>
       <c r="G44" s="3">
-        <v>1064000</v>
+        <v>928000</v>
       </c>
       <c r="H44" s="3">
-        <v>1392000</v>
+        <v>1030700</v>
       </c>
       <c r="I44" s="3">
-        <v>3894900</v>
+        <v>1348500</v>
       </c>
       <c r="J44" s="3">
+        <v>3773100</v>
+      </c>
+      <c r="K44" s="3">
         <v>1581800</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>197400</v>
+        <v>123500</v>
       </c>
       <c r="E45" s="3">
-        <v>175200</v>
+        <v>191300</v>
       </c>
       <c r="F45" s="3">
-        <v>253500</v>
+        <v>169700</v>
       </c>
       <c r="G45" s="3">
-        <v>168200</v>
+        <v>245600</v>
       </c>
       <c r="H45" s="3">
-        <v>85300</v>
+        <v>163000</v>
       </c>
       <c r="I45" s="3">
-        <v>80700</v>
+        <v>82600</v>
       </c>
       <c r="J45" s="3">
+        <v>78100</v>
+      </c>
+      <c r="K45" s="3">
         <v>78400</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4314400</v>
+        <v>4233100</v>
       </c>
       <c r="E46" s="3">
-        <v>3317200</v>
+        <v>4179500</v>
       </c>
       <c r="F46" s="3">
-        <v>2238600</v>
+        <v>3213500</v>
       </c>
       <c r="G46" s="3">
-        <v>3453200</v>
+        <v>2168600</v>
       </c>
       <c r="H46" s="3">
-        <v>3777400</v>
+        <v>3345200</v>
       </c>
       <c r="I46" s="3">
-        <v>4219900</v>
+        <v>3659300</v>
       </c>
       <c r="J46" s="3">
+        <v>4087900</v>
+      </c>
+      <c r="K46" s="3">
         <v>4182200</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>951100</v>
+        <v>1162500</v>
       </c>
       <c r="E47" s="3">
-        <v>1044800</v>
+        <v>1101400</v>
       </c>
       <c r="F47" s="3">
-        <v>359500</v>
+        <v>1012100</v>
       </c>
       <c r="G47" s="3">
-        <v>182100</v>
+        <v>348300</v>
       </c>
       <c r="H47" s="3">
-        <v>222000</v>
+        <v>176400</v>
       </c>
       <c r="I47" s="3">
-        <v>568500</v>
+        <v>215100</v>
       </c>
       <c r="J47" s="3">
+        <v>550700</v>
+      </c>
+      <c r="K47" s="3">
         <v>881200</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19141200</v>
+        <v>19942600</v>
       </c>
       <c r="E48" s="3">
-        <v>19712000</v>
+        <v>18542700</v>
       </c>
       <c r="F48" s="3">
-        <v>22067400</v>
+        <v>19095700</v>
       </c>
       <c r="G48" s="3">
-        <v>25456100</v>
+        <v>21377400</v>
       </c>
       <c r="H48" s="3">
-        <v>23733700</v>
+        <v>24660100</v>
       </c>
       <c r="I48" s="3">
-        <v>26143600</v>
+        <v>22991600</v>
       </c>
       <c r="J48" s="3">
+        <v>25326200</v>
+      </c>
+      <c r="K48" s="3">
         <v>19225000</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>486300</v>
+        <v>513500</v>
       </c>
       <c r="E49" s="3">
-        <v>521600</v>
+        <v>471100</v>
       </c>
       <c r="F49" s="3">
-        <v>537800</v>
+        <v>505300</v>
       </c>
       <c r="G49" s="3">
-        <v>573100</v>
+        <v>520900</v>
       </c>
       <c r="H49" s="3">
-        <v>536200</v>
+        <v>555200</v>
       </c>
       <c r="I49" s="3">
-        <v>509300</v>
+        <v>519500</v>
       </c>
       <c r="J49" s="3">
+        <v>493400</v>
+      </c>
+      <c r="K49" s="3">
         <v>517800</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1891,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1921,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>402600</v>
+        <v>363200</v>
       </c>
       <c r="E52" s="3">
-        <v>187400</v>
+        <v>209900</v>
       </c>
       <c r="F52" s="3">
-        <v>191300</v>
+        <v>181600</v>
       </c>
       <c r="G52" s="3">
-        <v>179800</v>
+        <v>185300</v>
       </c>
       <c r="H52" s="3">
-        <v>81400</v>
+        <v>174100</v>
       </c>
       <c r="I52" s="3">
-        <v>233500</v>
+        <v>78900</v>
       </c>
       <c r="J52" s="3">
+        <v>226200</v>
+      </c>
+      <c r="K52" s="3">
         <v>104500</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1981,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>25295500</v>
+        <v>26214800</v>
       </c>
       <c r="E54" s="3">
-        <v>24783100</v>
+        <v>24504600</v>
       </c>
       <c r="F54" s="3">
-        <v>25394600</v>
+        <v>24008200</v>
       </c>
       <c r="G54" s="3">
-        <v>29844200</v>
+        <v>24600600</v>
       </c>
       <c r="H54" s="3">
-        <v>28350800</v>
+        <v>28911100</v>
       </c>
       <c r="I54" s="3">
-        <v>27011700</v>
+        <v>27464300</v>
       </c>
       <c r="J54" s="3">
+        <v>26167200</v>
+      </c>
+      <c r="K54" s="3">
         <v>24910600</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +2028,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2042,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>729800</v>
+        <v>834300</v>
       </c>
       <c r="E57" s="3">
-        <v>585400</v>
+        <v>707000</v>
       </c>
       <c r="F57" s="3">
-        <v>488600</v>
+        <v>567100</v>
       </c>
       <c r="G57" s="3">
-        <v>422500</v>
+        <v>473300</v>
       </c>
       <c r="H57" s="3">
-        <v>63000</v>
+        <v>409300</v>
       </c>
       <c r="I57" s="3">
-        <v>2502100</v>
+        <v>61000</v>
       </c>
       <c r="J57" s="3">
+        <v>2423900</v>
+      </c>
+      <c r="K57" s="3">
         <v>56800</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>153600</v>
+        <v>1215300</v>
       </c>
       <c r="E58" s="3">
-        <v>463200</v>
+        <v>148800</v>
       </c>
       <c r="F58" s="3">
-        <v>765900</v>
+        <v>557400</v>
       </c>
       <c r="G58" s="3">
-        <v>918000</v>
+        <v>898300</v>
       </c>
       <c r="H58" s="3">
-        <v>613000</v>
+        <v>2026500</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>593900</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>312700</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1810700</v>
+        <v>1667000</v>
       </c>
       <c r="E59" s="3">
-        <v>1404300</v>
+        <v>1754100</v>
       </c>
       <c r="F59" s="3">
-        <v>1692400</v>
+        <v>1251800</v>
       </c>
       <c r="G59" s="3">
-        <v>3122100</v>
+        <v>1483200</v>
       </c>
       <c r="H59" s="3">
-        <v>2522100</v>
+        <v>1887300</v>
       </c>
       <c r="I59" s="3">
-        <v>4439600</v>
+        <v>2443200</v>
       </c>
       <c r="J59" s="3">
+        <v>4300800</v>
+      </c>
+      <c r="K59" s="3">
         <v>2234800</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2694200</v>
+        <v>3716600</v>
       </c>
       <c r="E60" s="3">
-        <v>2453000</v>
+        <v>2609900</v>
       </c>
       <c r="F60" s="3">
-        <v>2946900</v>
+        <v>2376300</v>
       </c>
       <c r="G60" s="3">
-        <v>4462600</v>
+        <v>2854800</v>
       </c>
       <c r="H60" s="3">
-        <v>3198100</v>
+        <v>4323100</v>
       </c>
       <c r="I60" s="3">
-        <v>2375400</v>
+        <v>3098100</v>
       </c>
       <c r="J60" s="3">
+        <v>2301100</v>
+      </c>
+      <c r="K60" s="3">
         <v>2604300</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4408100</v>
+        <v>3409200</v>
       </c>
       <c r="E61" s="3">
-        <v>3859600</v>
+        <v>4270300</v>
       </c>
       <c r="F61" s="3">
-        <v>4628600</v>
+        <v>3738900</v>
       </c>
       <c r="G61" s="3">
-        <v>3350300</v>
+        <v>4483900</v>
       </c>
       <c r="H61" s="3">
-        <v>2575100</v>
+        <v>3245500</v>
       </c>
       <c r="I61" s="3">
-        <v>3033700</v>
+        <v>2494600</v>
       </c>
       <c r="J61" s="3">
+        <v>2938900</v>
+      </c>
+      <c r="K61" s="3">
         <v>2717200</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4390400</v>
+        <v>4492100</v>
       </c>
       <c r="E62" s="3">
-        <v>4929000</v>
+        <v>4253200</v>
       </c>
       <c r="F62" s="3">
-        <v>5077200</v>
+        <v>4774900</v>
       </c>
       <c r="G62" s="3">
-        <v>6225000</v>
+        <v>4918500</v>
       </c>
       <c r="H62" s="3">
-        <v>7153000</v>
+        <v>6030300</v>
       </c>
       <c r="I62" s="3">
-        <v>7266700</v>
+        <v>6929300</v>
       </c>
       <c r="J62" s="3">
+        <v>7039500</v>
+      </c>
+      <c r="K62" s="3">
         <v>5935300</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2249,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2093,9 +2279,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2309,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11501200</v>
+        <v>11626800</v>
       </c>
       <c r="E66" s="3">
-        <v>11250000</v>
+        <v>11141600</v>
       </c>
       <c r="F66" s="3">
-        <v>12652700</v>
+        <v>10898200</v>
       </c>
       <c r="G66" s="3">
-        <v>14037900</v>
+        <v>12257100</v>
       </c>
       <c r="H66" s="3">
-        <v>12926200</v>
+        <v>13598900</v>
       </c>
       <c r="I66" s="3">
-        <v>12291700</v>
+        <v>12522100</v>
       </c>
       <c r="J66" s="3">
+        <v>11907400</v>
+      </c>
+      <c r="K66" s="3">
         <v>11256900</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2356,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2383,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,36 +2413,42 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>671400</v>
+        <v>650400</v>
       </c>
       <c r="E70" s="3">
-        <v>671400</v>
+        <v>650400</v>
       </c>
       <c r="F70" s="3">
-        <v>671400</v>
+        <v>650400</v>
       </c>
       <c r="G70" s="3">
-        <v>410200</v>
+        <v>650400</v>
       </c>
       <c r="H70" s="3">
+        <v>397400</v>
+      </c>
+      <c r="I70" s="3">
+        <v>216600</v>
+      </c>
+      <c r="J70" s="3">
+        <v>216600</v>
+      </c>
+      <c r="K70" s="3">
         <v>223600</v>
       </c>
-      <c r="I70" s="3">
-        <v>223600</v>
-      </c>
-      <c r="J70" s="3">
-        <v>223600</v>
-      </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2473,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7073100</v>
+        <v>7645300</v>
       </c>
       <c r="E72" s="3">
-        <v>6496900</v>
+        <v>6851900</v>
       </c>
       <c r="F72" s="3">
-        <v>5830100</v>
+        <v>6293800</v>
       </c>
       <c r="G72" s="3">
-        <v>9730400</v>
+        <v>5647800</v>
       </c>
       <c r="H72" s="3">
-        <v>9691200</v>
+        <v>9426200</v>
       </c>
       <c r="I72" s="3">
-        <v>9165800</v>
+        <v>9388200</v>
       </c>
       <c r="J72" s="3">
+        <v>8893300</v>
+      </c>
+      <c r="K72" s="3">
         <v>8569600</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2533,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2563,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2593,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13122900</v>
+        <v>13937600</v>
       </c>
       <c r="E76" s="3">
-        <v>12861700</v>
+        <v>12712600</v>
       </c>
       <c r="F76" s="3">
-        <v>12070500</v>
+        <v>12459600</v>
       </c>
       <c r="G76" s="3">
-        <v>15396100</v>
+        <v>11693100</v>
       </c>
       <c r="H76" s="3">
-        <v>15200900</v>
+        <v>14914700</v>
       </c>
       <c r="I76" s="3">
-        <v>14496500</v>
+        <v>14725600</v>
       </c>
       <c r="J76" s="3">
+        <v>14043200</v>
+      </c>
+      <c r="K76" s="3">
         <v>13430200</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2653,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>577700</v>
+        <v>1058300</v>
       </c>
       <c r="E81" s="3">
-        <v>680700</v>
+        <v>559600</v>
       </c>
       <c r="F81" s="3">
-        <v>-2985300</v>
+        <v>659400</v>
       </c>
       <c r="G81" s="3">
-        <v>956400</v>
+        <v>-2892000</v>
       </c>
       <c r="H81" s="3">
-        <v>1395100</v>
+        <v>926500</v>
       </c>
       <c r="I81" s="3">
-        <v>1543400</v>
+        <v>1351500</v>
       </c>
       <c r="J81" s="3">
+        <v>1495100</v>
+      </c>
+      <c r="K81" s="3">
         <v>1700900</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2735,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2214000</v>
+        <v>1928200</v>
       </c>
       <c r="E83" s="3">
-        <v>1891400</v>
+        <v>2144800</v>
       </c>
       <c r="F83" s="3">
-        <v>6640600</v>
+        <v>1832200</v>
       </c>
       <c r="G83" s="3">
-        <v>3080600</v>
+        <v>6433000</v>
       </c>
       <c r="H83" s="3">
-        <v>2308500</v>
+        <v>2984300</v>
       </c>
       <c r="I83" s="3">
-        <v>1982000</v>
+        <v>2236400</v>
       </c>
       <c r="J83" s="3">
+        <v>1920100</v>
+      </c>
+      <c r="K83" s="3">
         <v>1935200</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2792,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2822,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2852,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2882,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2912,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2845500</v>
+        <v>3076600</v>
       </c>
       <c r="E89" s="3">
-        <v>1514200</v>
+        <v>2756600</v>
       </c>
       <c r="F89" s="3">
-        <v>2888500</v>
+        <v>1466800</v>
       </c>
       <c r="G89" s="3">
-        <v>4290600</v>
+        <v>2798200</v>
       </c>
       <c r="H89" s="3">
-        <v>3568400</v>
+        <v>4156400</v>
       </c>
       <c r="I89" s="3">
-        <v>3989400</v>
+        <v>3456900</v>
       </c>
       <c r="J89" s="3">
+        <v>3864700</v>
+      </c>
+      <c r="K89" s="3">
         <v>3911800</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2959,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1705500</v>
+        <v>-2662800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1309800</v>
+        <v>-1652100</v>
       </c>
       <c r="F91" s="3">
-        <v>-2308500</v>
+        <v>-1268900</v>
       </c>
       <c r="G91" s="3">
-        <v>-3858800</v>
+        <v>-2236400</v>
       </c>
       <c r="H91" s="3">
-        <v>-3862700</v>
+        <v>-3738200</v>
       </c>
       <c r="I91" s="3">
-        <v>-3611400</v>
+        <v>-3741900</v>
       </c>
       <c r="J91" s="3">
+        <v>-3498500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3687500</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +3016,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3046,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2142600</v>
+        <v>-2620400</v>
       </c>
       <c r="E94" s="3">
-        <v>485500</v>
+        <v>-2075600</v>
       </c>
       <c r="F94" s="3">
-        <v>-3700600</v>
+        <v>470300</v>
       </c>
       <c r="G94" s="3">
-        <v>-4166100</v>
+        <v>-3584900</v>
       </c>
       <c r="H94" s="3">
-        <v>-3627600</v>
+        <v>-4035900</v>
       </c>
       <c r="I94" s="3">
-        <v>-3713600</v>
+        <v>-3514200</v>
       </c>
       <c r="J94" s="3">
+        <v>-3597500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3395600</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3093,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-26100</v>
+        <v>-325200</v>
       </c>
       <c r="E96" s="3">
-        <v>-20700</v>
+        <v>-25300</v>
       </c>
       <c r="F96" s="3">
-        <v>-924200</v>
+        <v>-20100</v>
       </c>
       <c r="G96" s="3">
-        <v>-908000</v>
+        <v>-895300</v>
       </c>
       <c r="H96" s="3">
-        <v>-909600</v>
+        <v>-879700</v>
       </c>
       <c r="I96" s="3">
-        <v>-441000</v>
+        <v>-881100</v>
       </c>
       <c r="J96" s="3">
+        <v>-427200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-385700</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3150,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3180,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3210,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>278900</v>
+        <v>-241900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1046300</v>
+        <v>270100</v>
       </c>
       <c r="F100" s="3">
-        <v>-161300</v>
+        <v>-1013600</v>
       </c>
       <c r="G100" s="3">
-        <v>-4600</v>
+        <v>-156300</v>
       </c>
       <c r="H100" s="3">
-        <v>-649900</v>
+        <v>-4500</v>
       </c>
       <c r="I100" s="3">
-        <v>-124500</v>
+        <v>-629600</v>
       </c>
       <c r="J100" s="3">
+        <v>-120600</v>
+      </c>
+      <c r="K100" s="3">
         <v>699100</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-64500</v>
+        <v>48400</v>
       </c>
       <c r="E101" s="3">
-        <v>6100</v>
+        <v>-62500</v>
       </c>
       <c r="F101" s="3">
-        <v>53800</v>
+        <v>6000</v>
       </c>
       <c r="G101" s="3">
-        <v>10800</v>
+        <v>52100</v>
       </c>
       <c r="H101" s="3">
-        <v>-3800</v>
+        <v>10400</v>
       </c>
       <c r="I101" s="3">
-        <v>-10000</v>
+        <v>-3700</v>
       </c>
       <c r="J101" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="K101" s="3">
         <v>5400</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>917300</v>
+        <v>262700</v>
       </c>
       <c r="E102" s="3">
-        <v>959500</v>
+        <v>888600</v>
       </c>
       <c r="F102" s="3">
-        <v>-919600</v>
+        <v>929500</v>
       </c>
       <c r="G102" s="3">
-        <v>130600</v>
+        <v>-890800</v>
       </c>
       <c r="H102" s="3">
-        <v>-712900</v>
+        <v>126500</v>
       </c>
       <c r="I102" s="3">
-        <v>141400</v>
+        <v>-690600</v>
       </c>
       <c r="J102" s="3">
+        <v>136900</v>
+      </c>
+      <c r="K102" s="3">
         <v>1220700</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/HUSKF_YR_FIN.xlsx
+++ b/Financials/Yearly/HUSKF_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C50BAB-793D-44FD-90D6-69ADB9EA5EAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="HUSKF" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,32 +654,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -744,97 +709,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16560200</v>
+        <v>16751100</v>
       </c>
       <c r="E8" s="3">
-        <v>13829700</v>
+        <v>13989100</v>
       </c>
       <c r="F8" s="3">
-        <v>9614400</v>
+        <v>9725300</v>
       </c>
       <c r="G8" s="3">
-        <v>12182000</v>
+        <v>12322400</v>
       </c>
       <c r="H8" s="3">
-        <v>17929500</v>
+        <v>18136200</v>
       </c>
       <c r="I8" s="3">
-        <v>17352700</v>
+        <v>17552800</v>
       </c>
       <c r="J8" s="3">
-        <v>16562400</v>
+        <v>16753300</v>
       </c>
       <c r="K8" s="3">
         <v>16868000</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12918000</v>
+        <v>13066900</v>
       </c>
       <c r="E9" s="3">
-        <v>10601300</v>
+        <v>10723500</v>
       </c>
       <c r="F9" s="3">
-        <v>7501600</v>
+        <v>7588100</v>
       </c>
       <c r="G9" s="3">
-        <v>9221500</v>
+        <v>9327800</v>
       </c>
       <c r="H9" s="3">
-        <v>13044500</v>
+        <v>13194900</v>
       </c>
       <c r="I9" s="3">
-        <v>12547400</v>
+        <v>12692000</v>
       </c>
       <c r="J9" s="3">
-        <v>11926700</v>
+        <v>12064200</v>
       </c>
       <c r="K9" s="3">
         <v>24707000</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3642200</v>
+        <v>3684200</v>
       </c>
       <c r="E10" s="3">
-        <v>3228400</v>
+        <v>3265600</v>
       </c>
       <c r="F10" s="3">
-        <v>2112800</v>
+        <v>2137200</v>
       </c>
       <c r="G10" s="3">
-        <v>2960500</v>
+        <v>2994600</v>
       </c>
       <c r="H10" s="3">
-        <v>4885000</v>
+        <v>4941300</v>
       </c>
       <c r="I10" s="3">
-        <v>4805400</v>
+        <v>4860800</v>
       </c>
       <c r="J10" s="3">
-        <v>4635700</v>
+        <v>4689100</v>
       </c>
       <c r="K10" s="3">
         <v>-7839000</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,37 +813,37 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>110900</v>
+        <v>112200</v>
       </c>
       <c r="E12" s="3">
-        <v>108700</v>
+        <v>109900</v>
       </c>
       <c r="F12" s="3">
-        <v>139900</v>
+        <v>141500</v>
       </c>
       <c r="G12" s="3">
-        <v>332700</v>
+        <v>336500</v>
       </c>
       <c r="H12" s="3">
-        <v>159300</v>
+        <v>161100</v>
       </c>
       <c r="I12" s="3">
-        <v>183100</v>
+        <v>185200</v>
       </c>
       <c r="J12" s="3">
-        <v>256000</v>
+        <v>259000</v>
       </c>
       <c r="K12" s="3">
         <v>361100</v>
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,7 +873,7 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -938,37 +903,37 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>1928200</v>
+        <v>1950500</v>
       </c>
       <c r="E15" s="3">
-        <v>2144800</v>
+        <v>2169500</v>
       </c>
       <c r="F15" s="3">
-        <v>1832200</v>
+        <v>1853400</v>
       </c>
       <c r="G15" s="3">
-        <v>6433000</v>
+        <v>6507100</v>
       </c>
       <c r="H15" s="3">
-        <v>2984300</v>
+        <v>3018700</v>
       </c>
       <c r="I15" s="3">
-        <v>2236400</v>
+        <v>2262100</v>
       </c>
       <c r="J15" s="3">
-        <v>1920100</v>
+        <v>1942200</v>
       </c>
       <c r="K15" s="3">
         <v>1935200</v>
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -979,67 +944,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>15001000</v>
+        <v>15174000</v>
       </c>
       <c r="E17" s="3">
-        <v>13290800</v>
+        <v>13444100</v>
       </c>
       <c r="F17" s="3">
-        <v>8642500</v>
+        <v>8742200</v>
       </c>
       <c r="G17" s="3">
-        <v>16011700</v>
+        <v>16196300</v>
       </c>
       <c r="H17" s="3">
-        <v>16490200</v>
+        <v>16680300</v>
       </c>
       <c r="I17" s="3">
-        <v>15317300</v>
+        <v>15493900</v>
       </c>
       <c r="J17" s="3">
-        <v>14344600</v>
+        <v>14510000</v>
       </c>
       <c r="K17" s="3">
         <v>14291400</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1559100</v>
+        <v>1577100</v>
       </c>
       <c r="E18" s="3">
-        <v>538800</v>
+        <v>545000</v>
       </c>
       <c r="F18" s="3">
-        <v>971900</v>
+        <v>983100</v>
       </c>
       <c r="G18" s="3">
-        <v>-3829700</v>
+        <v>-3873900</v>
       </c>
       <c r="H18" s="3">
-        <v>1439300</v>
+        <v>1455900</v>
       </c>
       <c r="I18" s="3">
-        <v>2035400</v>
+        <v>2058900</v>
       </c>
       <c r="J18" s="3">
-        <v>2217700</v>
+        <v>2243300</v>
       </c>
       <c r="K18" s="3">
         <v>2576600</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1053,157 +1018,157 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>33500</v>
+        <v>33900</v>
       </c>
       <c r="E20" s="3">
-        <v>-17900</v>
+        <v>-18100</v>
       </c>
       <c r="F20" s="3">
-        <v>-72900</v>
+        <v>-73800</v>
       </c>
       <c r="G20" s="3">
-        <v>-49100</v>
+        <v>-49700</v>
       </c>
       <c r="H20" s="3">
-        <v>-41700</v>
+        <v>-42200</v>
       </c>
       <c r="I20" s="3">
-        <v>-44700</v>
+        <v>-45200</v>
       </c>
       <c r="J20" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="K20" s="3">
         <v>-49900</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3524900</v>
+        <v>3562300</v>
       </c>
       <c r="E21" s="3">
-        <v>2670300</v>
+        <v>2697500</v>
       </c>
       <c r="F21" s="3">
-        <v>2735100</v>
+        <v>2763600</v>
       </c>
       <c r="G21" s="3">
-        <v>2567600</v>
+        <v>2586500</v>
       </c>
       <c r="H21" s="3">
-        <v>4388200</v>
+        <v>4433800</v>
       </c>
       <c r="I21" s="3">
-        <v>4231800</v>
+        <v>4276900</v>
       </c>
       <c r="J21" s="3">
-        <v>4141100</v>
+        <v>4185600</v>
       </c>
       <c r="K21" s="3">
         <v>4471100</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>157800</v>
+        <v>159600</v>
       </c>
       <c r="E22" s="3">
-        <v>205400</v>
+        <v>207800</v>
       </c>
       <c r="F22" s="3">
-        <v>192000</v>
+        <v>194200</v>
       </c>
       <c r="G22" s="3">
-        <v>118300</v>
+        <v>119700</v>
       </c>
       <c r="H22" s="3">
-        <v>70000</v>
+        <v>70800</v>
       </c>
       <c r="I22" s="3">
-        <v>35000</v>
+        <v>35400</v>
       </c>
       <c r="J22" s="3">
-        <v>106400</v>
+        <v>107600</v>
       </c>
       <c r="K22" s="3">
         <v>114500</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1434800</v>
+        <v>1451400</v>
       </c>
       <c r="E23" s="3">
-        <v>315500</v>
+        <v>319200</v>
       </c>
       <c r="F23" s="3">
-        <v>707000</v>
+        <v>715200</v>
       </c>
       <c r="G23" s="3">
-        <v>-3997200</v>
+        <v>-4043200</v>
       </c>
       <c r="H23" s="3">
-        <v>1327700</v>
+        <v>1343000</v>
       </c>
       <c r="I23" s="3">
-        <v>1955800</v>
+        <v>1978300</v>
       </c>
       <c r="J23" s="3">
-        <v>2110600</v>
+        <v>2134900</v>
       </c>
       <c r="K23" s="3">
         <v>2412200</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>350500</v>
+        <v>354600</v>
       </c>
       <c r="E24" s="3">
-        <v>55100</v>
+        <v>55700</v>
       </c>
       <c r="F24" s="3">
-        <v>20800</v>
+        <v>21100</v>
       </c>
       <c r="G24" s="3">
-        <v>-1131900</v>
+        <v>-1145000</v>
       </c>
       <c r="H24" s="3">
-        <v>391500</v>
+        <v>396000</v>
       </c>
       <c r="I24" s="3">
-        <v>594600</v>
+        <v>601500</v>
       </c>
       <c r="J24" s="3">
-        <v>605800</v>
+        <v>612800</v>
       </c>
       <c r="K24" s="3">
         <v>703700</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1233,67 +1198,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1084300</v>
+        <v>1096800</v>
       </c>
       <c r="E26" s="3">
-        <v>260500</v>
+        <v>263500</v>
       </c>
       <c r="F26" s="3">
-        <v>686200</v>
+        <v>694100</v>
       </c>
       <c r="G26" s="3">
-        <v>-2865200</v>
+        <v>-2898200</v>
       </c>
       <c r="H26" s="3">
-        <v>936200</v>
+        <v>947000</v>
       </c>
       <c r="I26" s="3">
-        <v>1361200</v>
+        <v>1376900</v>
       </c>
       <c r="J26" s="3">
-        <v>1504800</v>
+        <v>1522100</v>
       </c>
       <c r="K26" s="3">
         <v>1708500</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1058300</v>
+        <v>1070500</v>
       </c>
       <c r="E27" s="3">
-        <v>235200</v>
+        <v>237900</v>
       </c>
       <c r="F27" s="3">
-        <v>659400</v>
+        <v>667000</v>
       </c>
       <c r="G27" s="3">
-        <v>-2892000</v>
+        <v>-2925300</v>
       </c>
       <c r="H27" s="3">
-        <v>926500</v>
+        <v>937200</v>
       </c>
       <c r="I27" s="3">
-        <v>1351500</v>
+        <v>1367100</v>
       </c>
       <c r="J27" s="3">
-        <v>1495100</v>
+        <v>1512400</v>
       </c>
       <c r="K27" s="3">
         <v>1700900</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1323,7 +1288,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,7 +1296,7 @@
         <v>24</v>
       </c>
       <c r="E29" s="3">
-        <v>324500</v>
+        <v>328200</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
@@ -1353,7 +1318,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1383,7 +1348,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1413,67 +1378,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-33500</v>
+        <v>-33900</v>
       </c>
       <c r="E32" s="3">
-        <v>17900</v>
+        <v>18100</v>
       </c>
       <c r="F32" s="3">
-        <v>72900</v>
+        <v>73800</v>
       </c>
       <c r="G32" s="3">
-        <v>49100</v>
+        <v>49700</v>
       </c>
       <c r="H32" s="3">
-        <v>41700</v>
+        <v>42200</v>
       </c>
       <c r="I32" s="3">
-        <v>44700</v>
+        <v>45200</v>
       </c>
       <c r="J32" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K32" s="3">
         <v>49900</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1058300</v>
+        <v>1070500</v>
       </c>
       <c r="E33" s="3">
-        <v>559600</v>
+        <v>566100</v>
       </c>
       <c r="F33" s="3">
-        <v>659400</v>
+        <v>667000</v>
       </c>
       <c r="G33" s="3">
-        <v>-2892000</v>
+        <v>-2925300</v>
       </c>
       <c r="H33" s="3">
-        <v>926500</v>
+        <v>937200</v>
       </c>
       <c r="I33" s="3">
-        <v>1351500</v>
+        <v>1367100</v>
       </c>
       <c r="J33" s="3">
-        <v>1495100</v>
+        <v>1512400</v>
       </c>
       <c r="K33" s="3">
         <v>1700900</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1503,42 +1468,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1058300</v>
+        <v>1070500</v>
       </c>
       <c r="E35" s="3">
-        <v>559600</v>
+        <v>566100</v>
       </c>
       <c r="F35" s="3">
-        <v>659400</v>
+        <v>667000</v>
       </c>
       <c r="G35" s="3">
-        <v>-2892000</v>
+        <v>-2925300</v>
       </c>
       <c r="H35" s="3">
-        <v>926500</v>
+        <v>937200</v>
       </c>
       <c r="I35" s="3">
-        <v>1351500</v>
+        <v>1367100</v>
       </c>
       <c r="J35" s="3">
-        <v>1495100</v>
+        <v>1512400</v>
       </c>
       <c r="K35" s="3">
         <v>1700900</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1568,7 +1533,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1582,7 +1547,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1596,37 +1561,37 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2132900</v>
+        <v>2157500</v>
       </c>
       <c r="E41" s="3">
-        <v>1870200</v>
+        <v>1891800</v>
       </c>
       <c r="F41" s="3">
-        <v>981600</v>
+        <v>992900</v>
       </c>
       <c r="G41" s="3">
-        <v>52100</v>
+        <v>52700</v>
       </c>
       <c r="H41" s="3">
-        <v>942900</v>
+        <v>953800</v>
       </c>
       <c r="I41" s="3">
-        <v>227000</v>
+        <v>229600</v>
       </c>
       <c r="J41" s="3">
-        <v>1696100</v>
+        <v>1715600</v>
       </c>
       <c r="K41" s="3">
         <v>1500</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1646,227 +1611,227 @@
         <v>24</v>
       </c>
       <c r="I42" s="3">
-        <v>589400</v>
+        <v>596200</v>
       </c>
       <c r="J42" s="3">
-        <v>1412500</v>
+        <v>1428800</v>
       </c>
       <c r="K42" s="3">
         <v>1412800</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1059800</v>
+        <v>1072000</v>
       </c>
       <c r="E43" s="3">
-        <v>992000</v>
+        <v>1003500</v>
       </c>
       <c r="F43" s="3">
-        <v>902700</v>
+        <v>913100</v>
       </c>
       <c r="G43" s="3">
-        <v>942900</v>
+        <v>953800</v>
       </c>
       <c r="H43" s="3">
-        <v>1208600</v>
+        <v>1222500</v>
       </c>
       <c r="I43" s="3">
-        <v>1411800</v>
+        <v>1428000</v>
       </c>
       <c r="J43" s="3">
-        <v>3215700</v>
+        <v>3252800</v>
       </c>
       <c r="K43" s="3">
         <v>1107800</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>916900</v>
+        <v>927400</v>
       </c>
       <c r="E44" s="3">
-        <v>1126000</v>
+        <v>1139000</v>
       </c>
       <c r="F44" s="3">
-        <v>1159500</v>
+        <v>1172800</v>
       </c>
       <c r="G44" s="3">
-        <v>928000</v>
+        <v>938700</v>
       </c>
       <c r="H44" s="3">
-        <v>1030700</v>
+        <v>1042600</v>
       </c>
       <c r="I44" s="3">
-        <v>1348500</v>
+        <v>1364100</v>
       </c>
       <c r="J44" s="3">
-        <v>3773100</v>
+        <v>3816600</v>
       </c>
       <c r="K44" s="3">
         <v>1581800</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>123500</v>
+        <v>125000</v>
       </c>
       <c r="E45" s="3">
-        <v>191300</v>
+        <v>193500</v>
       </c>
       <c r="F45" s="3">
-        <v>169700</v>
+        <v>171600</v>
       </c>
       <c r="G45" s="3">
-        <v>245600</v>
+        <v>248400</v>
       </c>
       <c r="H45" s="3">
-        <v>163000</v>
+        <v>164900</v>
       </c>
       <c r="I45" s="3">
-        <v>82600</v>
+        <v>83600</v>
       </c>
       <c r="J45" s="3">
-        <v>78100</v>
+        <v>79000</v>
       </c>
       <c r="K45" s="3">
         <v>78400</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4233100</v>
+        <v>4281900</v>
       </c>
       <c r="E46" s="3">
-        <v>4179500</v>
+        <v>4227700</v>
       </c>
       <c r="F46" s="3">
-        <v>3213500</v>
+        <v>3250500</v>
       </c>
       <c r="G46" s="3">
-        <v>2168600</v>
+        <v>2193600</v>
       </c>
       <c r="H46" s="3">
-        <v>3345200</v>
+        <v>3383800</v>
       </c>
       <c r="I46" s="3">
-        <v>3659300</v>
+        <v>3701500</v>
       </c>
       <c r="J46" s="3">
-        <v>4087900</v>
+        <v>4135100</v>
       </c>
       <c r="K46" s="3">
         <v>4182200</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1162500</v>
+        <v>1175900</v>
       </c>
       <c r="E47" s="3">
-        <v>1101400</v>
+        <v>1114100</v>
       </c>
       <c r="F47" s="3">
-        <v>1012100</v>
+        <v>1023800</v>
       </c>
       <c r="G47" s="3">
-        <v>348300</v>
+        <v>352300</v>
       </c>
       <c r="H47" s="3">
-        <v>176400</v>
+        <v>178400</v>
       </c>
       <c r="I47" s="3">
-        <v>215100</v>
+        <v>217600</v>
       </c>
       <c r="J47" s="3">
-        <v>550700</v>
+        <v>557100</v>
       </c>
       <c r="K47" s="3">
         <v>881200</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19942600</v>
+        <v>20172500</v>
       </c>
       <c r="E48" s="3">
-        <v>18542700</v>
+        <v>18756500</v>
       </c>
       <c r="F48" s="3">
-        <v>19095700</v>
+        <v>19315800</v>
       </c>
       <c r="G48" s="3">
-        <v>21377400</v>
+        <v>21623900</v>
       </c>
       <c r="H48" s="3">
-        <v>24660100</v>
+        <v>24944400</v>
       </c>
       <c r="I48" s="3">
-        <v>22991600</v>
+        <v>23256700</v>
       </c>
       <c r="J48" s="3">
-        <v>25326200</v>
+        <v>25618200</v>
       </c>
       <c r="K48" s="3">
         <v>19225000</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>513500</v>
+        <v>519400</v>
       </c>
       <c r="E49" s="3">
-        <v>471100</v>
+        <v>476500</v>
       </c>
       <c r="F49" s="3">
-        <v>505300</v>
+        <v>511100</v>
       </c>
       <c r="G49" s="3">
-        <v>520900</v>
+        <v>527000</v>
       </c>
       <c r="H49" s="3">
-        <v>555200</v>
+        <v>561600</v>
       </c>
       <c r="I49" s="3">
-        <v>519500</v>
+        <v>525400</v>
       </c>
       <c r="J49" s="3">
-        <v>493400</v>
+        <v>499100</v>
       </c>
       <c r="K49" s="3">
         <v>517800</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1896,7 +1861,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1926,37 +1891,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>363200</v>
+        <v>367400</v>
       </c>
       <c r="E52" s="3">
-        <v>209900</v>
+        <v>212300</v>
       </c>
       <c r="F52" s="3">
-        <v>181600</v>
+        <v>183700</v>
       </c>
       <c r="G52" s="3">
-        <v>185300</v>
+        <v>187400</v>
       </c>
       <c r="H52" s="3">
-        <v>174100</v>
+        <v>176200</v>
       </c>
       <c r="I52" s="3">
-        <v>78900</v>
+        <v>79800</v>
       </c>
       <c r="J52" s="3">
-        <v>226200</v>
+        <v>228800</v>
       </c>
       <c r="K52" s="3">
         <v>104500</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1986,37 +1951,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26214800</v>
+        <v>26517000</v>
       </c>
       <c r="E54" s="3">
-        <v>24504600</v>
+        <v>24787100</v>
       </c>
       <c r="F54" s="3">
-        <v>24008200</v>
+        <v>24285000</v>
       </c>
       <c r="G54" s="3">
-        <v>24600600</v>
+        <v>24884200</v>
       </c>
       <c r="H54" s="3">
-        <v>28911100</v>
+        <v>29244400</v>
       </c>
       <c r="I54" s="3">
-        <v>27464300</v>
+        <v>27781000</v>
       </c>
       <c r="J54" s="3">
-        <v>26167200</v>
+        <v>26468800</v>
       </c>
       <c r="K54" s="3">
         <v>24910600</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2030,7 +1995,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2044,57 +2009,57 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>834300</v>
+        <v>843900</v>
       </c>
       <c r="E57" s="3">
-        <v>707000</v>
+        <v>715200</v>
       </c>
       <c r="F57" s="3">
-        <v>567100</v>
+        <v>573600</v>
       </c>
       <c r="G57" s="3">
-        <v>473300</v>
+        <v>478800</v>
       </c>
       <c r="H57" s="3">
-        <v>409300</v>
+        <v>414000</v>
       </c>
       <c r="I57" s="3">
-        <v>61000</v>
+        <v>61700</v>
       </c>
       <c r="J57" s="3">
-        <v>2423900</v>
+        <v>2451800</v>
       </c>
       <c r="K57" s="3">
         <v>56800</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1215300</v>
+        <v>1229300</v>
       </c>
       <c r="E58" s="3">
-        <v>148800</v>
+        <v>150600</v>
       </c>
       <c r="F58" s="3">
-        <v>557400</v>
+        <v>563800</v>
       </c>
       <c r="G58" s="3">
-        <v>898300</v>
+        <v>908600</v>
       </c>
       <c r="H58" s="3">
-        <v>2026500</v>
+        <v>2049800</v>
       </c>
       <c r="I58" s="3">
-        <v>593900</v>
+        <v>600700</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2104,127 +2069,127 @@
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1667000</v>
+        <v>1686200</v>
       </c>
       <c r="E59" s="3">
-        <v>1754100</v>
+        <v>1774300</v>
       </c>
       <c r="F59" s="3">
-        <v>1251800</v>
+        <v>1266200</v>
       </c>
       <c r="G59" s="3">
-        <v>1483200</v>
+        <v>1500300</v>
       </c>
       <c r="H59" s="3">
-        <v>1887300</v>
+        <v>1909100</v>
       </c>
       <c r="I59" s="3">
-        <v>2443200</v>
+        <v>2471400</v>
       </c>
       <c r="J59" s="3">
-        <v>4300800</v>
+        <v>4350400</v>
       </c>
       <c r="K59" s="3">
         <v>2234800</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3716600</v>
+        <v>3759400</v>
       </c>
       <c r="E60" s="3">
-        <v>2609900</v>
+        <v>2640000</v>
       </c>
       <c r="F60" s="3">
-        <v>2376300</v>
+        <v>2403700</v>
       </c>
       <c r="G60" s="3">
-        <v>2854800</v>
+        <v>2887700</v>
       </c>
       <c r="H60" s="3">
-        <v>4323100</v>
+        <v>4373000</v>
       </c>
       <c r="I60" s="3">
-        <v>3098100</v>
+        <v>3133900</v>
       </c>
       <c r="J60" s="3">
-        <v>2301100</v>
+        <v>2327600</v>
       </c>
       <c r="K60" s="3">
         <v>2604300</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3409200</v>
+        <v>3448500</v>
       </c>
       <c r="E61" s="3">
-        <v>4270300</v>
+        <v>4319500</v>
       </c>
       <c r="F61" s="3">
-        <v>3738900</v>
+        <v>3782000</v>
       </c>
       <c r="G61" s="3">
-        <v>4483900</v>
+        <v>4535600</v>
       </c>
       <c r="H61" s="3">
-        <v>3245500</v>
+        <v>3282900</v>
       </c>
       <c r="I61" s="3">
-        <v>2494600</v>
+        <v>2523400</v>
       </c>
       <c r="J61" s="3">
-        <v>2938900</v>
+        <v>2972800</v>
       </c>
       <c r="K61" s="3">
         <v>2717200</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4492100</v>
+        <v>4543800</v>
       </c>
       <c r="E62" s="3">
-        <v>4253200</v>
+        <v>4302200</v>
       </c>
       <c r="F62" s="3">
-        <v>4774900</v>
+        <v>4829900</v>
       </c>
       <c r="G62" s="3">
-        <v>4918500</v>
+        <v>4975200</v>
       </c>
       <c r="H62" s="3">
-        <v>6030300</v>
+        <v>6099900</v>
       </c>
       <c r="I62" s="3">
-        <v>6929300</v>
+        <v>7009200</v>
       </c>
       <c r="J62" s="3">
-        <v>7039500</v>
+        <v>7120600</v>
       </c>
       <c r="K62" s="3">
         <v>5935300</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2254,7 +2219,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2284,7 +2249,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2314,37 +2279,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11626800</v>
+        <v>11760800</v>
       </c>
       <c r="E66" s="3">
-        <v>11141600</v>
+        <v>11270000</v>
       </c>
       <c r="F66" s="3">
-        <v>10898200</v>
+        <v>11023900</v>
       </c>
       <c r="G66" s="3">
-        <v>12257100</v>
+        <v>12398500</v>
       </c>
       <c r="H66" s="3">
-        <v>13598900</v>
+        <v>13755700</v>
       </c>
       <c r="I66" s="3">
-        <v>12522100</v>
+        <v>12666400</v>
       </c>
       <c r="J66" s="3">
-        <v>11907400</v>
+        <v>12044600</v>
       </c>
       <c r="K66" s="3">
         <v>11256900</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2358,7 +2323,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2388,7 +2353,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2418,37 +2383,37 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>650400</v>
+        <v>657900</v>
       </c>
       <c r="E70" s="3">
-        <v>650400</v>
+        <v>657900</v>
       </c>
       <c r="F70" s="3">
-        <v>650400</v>
+        <v>657900</v>
       </c>
       <c r="G70" s="3">
-        <v>650400</v>
+        <v>657900</v>
       </c>
       <c r="H70" s="3">
-        <v>397400</v>
+        <v>402000</v>
       </c>
       <c r="I70" s="3">
-        <v>216600</v>
+        <v>219100</v>
       </c>
       <c r="J70" s="3">
-        <v>216600</v>
+        <v>219100</v>
       </c>
       <c r="K70" s="3">
         <v>223600</v>
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2478,37 +2443,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7645300</v>
+        <v>7733400</v>
       </c>
       <c r="E72" s="3">
-        <v>6851900</v>
+        <v>6930900</v>
       </c>
       <c r="F72" s="3">
-        <v>6293800</v>
+        <v>6366300</v>
       </c>
       <c r="G72" s="3">
-        <v>5647800</v>
+        <v>5712900</v>
       </c>
       <c r="H72" s="3">
-        <v>9426200</v>
+        <v>9534800</v>
       </c>
       <c r="I72" s="3">
-        <v>9388200</v>
+        <v>9496400</v>
       </c>
       <c r="J72" s="3">
-        <v>8893300</v>
+        <v>8995800</v>
       </c>
       <c r="K72" s="3">
         <v>8569600</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2538,7 +2503,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2568,7 +2533,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2598,37 +2563,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13937600</v>
+        <v>14098300</v>
       </c>
       <c r="E76" s="3">
-        <v>12712600</v>
+        <v>12859200</v>
       </c>
       <c r="F76" s="3">
-        <v>12459600</v>
+        <v>12603200</v>
       </c>
       <c r="G76" s="3">
-        <v>11693100</v>
+        <v>11827900</v>
       </c>
       <c r="H76" s="3">
-        <v>14914700</v>
+        <v>15086700</v>
       </c>
       <c r="I76" s="3">
-        <v>14725600</v>
+        <v>14895400</v>
       </c>
       <c r="J76" s="3">
-        <v>14043200</v>
+        <v>14205100</v>
       </c>
       <c r="K76" s="3">
         <v>13430200</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2658,12 +2623,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2693,37 +2658,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1058300</v>
+        <v>1070500</v>
       </c>
       <c r="E81" s="3">
-        <v>559600</v>
+        <v>566100</v>
       </c>
       <c r="F81" s="3">
-        <v>659400</v>
+        <v>667000</v>
       </c>
       <c r="G81" s="3">
-        <v>-2892000</v>
+        <v>-2925300</v>
       </c>
       <c r="H81" s="3">
-        <v>926500</v>
+        <v>937200</v>
       </c>
       <c r="I81" s="3">
-        <v>1351500</v>
+        <v>1367100</v>
       </c>
       <c r="J81" s="3">
-        <v>1495100</v>
+        <v>1512400</v>
       </c>
       <c r="K81" s="3">
         <v>1700900</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2737,37 +2702,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1928200</v>
+        <v>1950500</v>
       </c>
       <c r="E83" s="3">
-        <v>2144800</v>
+        <v>2169500</v>
       </c>
       <c r="F83" s="3">
-        <v>1832200</v>
+        <v>1853400</v>
       </c>
       <c r="G83" s="3">
-        <v>6433000</v>
+        <v>6507100</v>
       </c>
       <c r="H83" s="3">
-        <v>2984300</v>
+        <v>3018700</v>
       </c>
       <c r="I83" s="3">
-        <v>2236400</v>
+        <v>2262100</v>
       </c>
       <c r="J83" s="3">
-        <v>1920100</v>
+        <v>1942200</v>
       </c>
       <c r="K83" s="3">
         <v>1935200</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2797,7 +2762,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2827,7 +2792,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2857,7 +2822,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2887,7 +2852,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2917,37 +2882,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3076600</v>
+        <v>3112000</v>
       </c>
       <c r="E89" s="3">
-        <v>2756600</v>
+        <v>2788300</v>
       </c>
       <c r="F89" s="3">
-        <v>1466800</v>
+        <v>1483700</v>
       </c>
       <c r="G89" s="3">
-        <v>2798200</v>
+        <v>2830500</v>
       </c>
       <c r="H89" s="3">
-        <v>4156400</v>
+        <v>4204300</v>
       </c>
       <c r="I89" s="3">
-        <v>3456900</v>
+        <v>3496700</v>
       </c>
       <c r="J89" s="3">
-        <v>3864700</v>
+        <v>3909200</v>
       </c>
       <c r="K89" s="3">
         <v>3911800</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2961,37 +2926,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2662800</v>
+        <v>-2693500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1652100</v>
+        <v>-1671200</v>
       </c>
       <c r="F91" s="3">
-        <v>-1268900</v>
+        <v>-1283500</v>
       </c>
       <c r="G91" s="3">
-        <v>-2236400</v>
+        <v>-2262100</v>
       </c>
       <c r="H91" s="3">
-        <v>-3738200</v>
+        <v>-3781300</v>
       </c>
       <c r="I91" s="3">
-        <v>-3741900</v>
+        <v>-3785000</v>
       </c>
       <c r="J91" s="3">
-        <v>-3498500</v>
+        <v>-3538900</v>
       </c>
       <c r="K91" s="3">
         <v>-3687500</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3021,7 +2986,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3051,37 +3016,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2620400</v>
+        <v>-2650600</v>
       </c>
       <c r="E94" s="3">
-        <v>-2075600</v>
+        <v>-2099500</v>
       </c>
       <c r="F94" s="3">
-        <v>470300</v>
+        <v>475800</v>
       </c>
       <c r="G94" s="3">
-        <v>-3584900</v>
+        <v>-3626200</v>
       </c>
       <c r="H94" s="3">
-        <v>-4035900</v>
+        <v>-4082400</v>
       </c>
       <c r="I94" s="3">
-        <v>-3514200</v>
+        <v>-3554700</v>
       </c>
       <c r="J94" s="3">
-        <v>-3597500</v>
+        <v>-3639000</v>
       </c>
       <c r="K94" s="3">
         <v>-3395600</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3095,37 +3060,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-325200</v>
+        <v>-329000</v>
       </c>
       <c r="E96" s="3">
-        <v>-25300</v>
+        <v>-25600</v>
       </c>
       <c r="F96" s="3">
-        <v>-20100</v>
+        <v>-20300</v>
       </c>
       <c r="G96" s="3">
-        <v>-895300</v>
+        <v>-905600</v>
       </c>
       <c r="H96" s="3">
-        <v>-879700</v>
+        <v>-889800</v>
       </c>
       <c r="I96" s="3">
-        <v>-881100</v>
+        <v>-891300</v>
       </c>
       <c r="J96" s="3">
-        <v>-427200</v>
+        <v>-432100</v>
       </c>
       <c r="K96" s="3">
         <v>-385700</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3155,7 +3120,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3185,7 +3150,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3215,90 +3180,90 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-241900</v>
+        <v>-244700</v>
       </c>
       <c r="E100" s="3">
-        <v>270100</v>
+        <v>273300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1013600</v>
+        <v>-1025300</v>
       </c>
       <c r="G100" s="3">
-        <v>-156300</v>
+        <v>-158100</v>
       </c>
       <c r="H100" s="3">
         <v>-4500</v>
       </c>
       <c r="I100" s="3">
-        <v>-629600</v>
+        <v>-636900</v>
       </c>
       <c r="J100" s="3">
-        <v>-120600</v>
+        <v>-122000</v>
       </c>
       <c r="K100" s="3">
         <v>699100</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>48400</v>
+        <v>48900</v>
       </c>
       <c r="E101" s="3">
-        <v>-62500</v>
+        <v>-63200</v>
       </c>
       <c r="F101" s="3">
         <v>6000</v>
       </c>
       <c r="G101" s="3">
-        <v>52100</v>
+        <v>52700</v>
       </c>
       <c r="H101" s="3">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="I101" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="J101" s="3">
-        <v>-9700</v>
+        <v>-9800</v>
       </c>
       <c r="K101" s="3">
         <v>5400</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>262700</v>
+        <v>265700</v>
       </c>
       <c r="E102" s="3">
-        <v>888600</v>
+        <v>898800</v>
       </c>
       <c r="F102" s="3">
-        <v>929500</v>
+        <v>940200</v>
       </c>
       <c r="G102" s="3">
-        <v>-890800</v>
+        <v>-901100</v>
       </c>
       <c r="H102" s="3">
-        <v>126500</v>
+        <v>128000</v>
       </c>
       <c r="I102" s="3">
-        <v>-690600</v>
+        <v>-698600</v>
       </c>
       <c r="J102" s="3">
-        <v>136900</v>
+        <v>138500</v>
       </c>
       <c r="K102" s="3">
         <v>1220700</v>
